--- a/client/Product data.xlsx
+++ b/client/Product data.xlsx
@@ -9,66 +9,54 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgr2Aafz6S97FStmWKt+VFmhbLxqA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh6K5VNaHqOOlWeZO7yocl9/kUhwg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>cardNumber</t>
   </si>
   <si>
+    <t>cvv</t>
+  </si>
+  <si>
+    <t>socialSecurityNumber</t>
+  </si>
+  <si>
+    <t>drivingLicenceNumber</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>otherDetails</t>
+  </si>
+  <si>
     <t>expiryDate</t>
   </si>
   <si>
-    <t>cvv</t>
-  </si>
-  <si>
-    <t>socialSecurityNumber</t>
-  </si>
-  <si>
-    <t>drivingLicenceNumber</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>phoneNo</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>otherDetails</t>
-  </si>
-  <si>
-    <t>avaibility</t>
-  </si>
-  <si>
     <t>4737029876543256</t>
   </si>
   <si>
     <t>b-5</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>maine</t>
   </si>
   <si>
@@ -91,6 +79,24 @@
   </si>
   <si>
     <t>test_detail</t>
+  </si>
+  <si>
+    <t>4147202509039143</t>
+  </si>
+  <si>
+    <t>v-7</t>
+  </si>
+  <si>
+    <t>4147282345698765</t>
+  </si>
+  <si>
+    <t>n-7</t>
+  </si>
+  <si>
+    <t>newyork</t>
+  </si>
+  <si>
+    <t>ph</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -187,11 +193,11 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,15 +419,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.14"/>
-    <col customWidth="1" min="2" max="2" width="11.43"/>
-    <col customWidth="1" min="3" max="3" width="7.57"/>
-    <col customWidth="1" min="4" max="4" width="19.71"/>
-    <col customWidth="1" min="5" max="5" width="20.29"/>
-    <col customWidth="1" min="6" max="10" width="8.71"/>
-    <col customWidth="1" min="11" max="11" width="10.71"/>
-    <col customWidth="1" min="12" max="12" width="8.71"/>
-    <col customWidth="1" min="13" max="13" width="15.0"/>
-    <col customWidth="1" min="14" max="21" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="7.57"/>
+    <col customWidth="1" min="3" max="3" width="19.71"/>
+    <col customWidth="1" min="4" max="4" width="20.29"/>
+    <col customWidth="1" min="5" max="9" width="8.71"/>
+    <col customWidth="1" min="10" max="10" width="15.0"/>
+    <col customWidth="1" min="11" max="17" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -431,127 +434,168 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>475.0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2.3456789E8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.2309845E7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6">
-        <v>53573.0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>475.0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2.3456789E8</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1.2309845E7</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5">
+        <v>344506.0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>95.0</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5">
-        <v>34450.0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>9.87654234E8</v>
-      </c>
-      <c r="L2" s="5">
-        <v>986.0</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>19</v>
+      <c r="K2" s="7">
+        <v>48945.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>321.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.23456432E8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9812356.0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5">
+        <v>765134.0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>54.0</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6">
-        <v>61213.0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>321.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1.23456432E8</v>
-      </c>
-      <c r="E3" s="5">
-        <v>9812356.0</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="K3" s="7">
+        <v>45717.0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="B4" s="5">
+        <v>693.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.3456787654E10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9.8734568E7</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5">
+        <v>234765.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>78.0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="7">
+        <v>46266.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5">
-        <v>76513.0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>8.976543427E9</v>
-      </c>
-      <c r="L3" s="5">
-        <v>854.0</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="B5" s="5">
+        <v>547.0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5">
+        <v>234987.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7">
+        <v>49102.0</v>
+      </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
